--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -163,11 +163,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>账号角色框优化</t>
+    <t>教学视频开发（暂定）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>教学视频开发（暂定）</t>
+    <t>账号角色框优化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +819,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1138,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>31</v>
@@ -1176,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>31</v>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>New Features</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>子账号解锁功能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -816,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T184"/>
+  <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>31</v>
@@ -928,7 +924,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>28</v>
@@ -966,7 +962,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>28</v>
@@ -1004,7 +1000,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>28</v>
@@ -1024,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>31</v>
@@ -1042,7 +1038,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
       <c r="J5" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>28</v>
@@ -1100,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -1118,7 +1114,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>28</v>
@@ -1138,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>31</v>
@@ -1156,7 +1152,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
       <c r="J8" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>28</v>
@@ -1172,33 +1168,17 @@
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="24"/>
       <c r="N9" s="16"/>
@@ -1562,25 +1542,25 @@
       <c r="T25" s="28"/>
     </row>
     <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="24"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="27"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="28"/>
     </row>
     <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1605,27 +1585,26 @@
       <c r="S27" s="19"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="28"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
@@ -2766,7 +2745,7 @@
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="23"/>
       <c r="G83" s="21"/>
       <c r="H83" s="23"/>
@@ -2887,11 +2866,11 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="23"/>
       <c r="G89" s="21"/>
@@ -4163,9 +4142,6 @@
       <c r="M149" s="21"/>
       <c r="N149" s="23"/>
       <c r="O149" s="22"/>
-      <c r="P149" s="21"/>
-      <c r="Q149" s="21"/>
-      <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.15">
@@ -4779,24 +4755,6 @@
       <c r="N183" s="23"/>
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-      <c r="S184" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>消息管理页面第二次优化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -159,11 +155,43 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>教学视频开发（暂定）</t>
+    <t>账号角色框优化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>账号角色框优化</t>
+    <t>教学视频开发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢SQL优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林、彭堃、吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分店列表优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP子账号登录</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memcache缓存宕机处理优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录容错处理</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +843,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1028,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>28</v>
@@ -1020,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>31</v>
@@ -1058,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>31</v>
@@ -1076,7 +1104,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>28</v>
@@ -1096,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -1114,7 +1142,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>28</v>
@@ -1152,7 +1180,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
       <c r="J8" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>28</v>
@@ -1168,17 +1196,33 @@
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="24"/>
       <c r="N9" s="16"/>
@@ -1190,17 +1234,33 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="24"/>
       <c r="N10" s="16"/>
@@ -1212,17 +1272,33 @@
       <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="24"/>
       <c r="N11" s="16"/>
@@ -1234,17 +1310,33 @@
       <c r="T11" s="28"/>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="24"/>
       <c r="N12" s="16"/>
@@ -1256,17 +1348,33 @@
       <c r="T12" s="28"/>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="24"/>
       <c r="N13" s="16"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3 新特性|Fix Bug'!$A$1:$S$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -194,12 +189,24 @@
     <t>登录容错处理</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -839,14 +846,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -860,7 +867,8 @@
     <col min="10" max="10" width="33" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="10" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
-    <col min="13" max="14" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="11" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="11" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="11" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
@@ -870,7 +878,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -929,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -957,17 +965,25 @@
       <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="L2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="27"/>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -995,17 +1011,25 @@
       <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1043,7 +1067,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1081,7 +1105,7 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1109,17 +1133,25 @@
       <c r="K6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="L6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1147,17 +1179,25 @@
       <c r="K7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="L7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1185,7 +1225,9 @@
       <c r="K8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>
       <c r="O8" s="24"/>
@@ -1195,7 +1237,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1233,7 +1275,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1271,7 +1313,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1309,7 +1351,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1347,7 +1389,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1385,7 +1427,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
@@ -1407,7 +1449,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
@@ -1429,7 +1471,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1451,7 +1493,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1473,7 +1515,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1495,7 +1537,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1517,7 +1559,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1539,7 +1581,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1561,7 +1603,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
@@ -1583,7 +1625,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1605,7 +1647,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
@@ -1627,7 +1669,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="C25" s="15"/>
@@ -1649,7 +1691,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
@@ -1671,7 +1713,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="18"/>
@@ -1693,7 +1735,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -1714,7 +1756,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -1735,7 +1777,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -1756,7 +1798,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -1777,7 +1819,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -1798,7 +1840,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -1819,7 +1861,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -1840,7 +1882,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -1861,7 +1903,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -1882,7 +1924,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -1903,7 +1945,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1924,7 +1966,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1945,7 +1987,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -1966,7 +2008,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -1987,7 +2029,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2008,7 +2050,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2029,7 +2071,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2050,7 +2092,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2071,7 +2113,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2092,7 +2134,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2113,7 +2155,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2134,7 +2176,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2155,7 +2197,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2176,7 +2218,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2197,7 +2239,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2218,7 +2260,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2239,7 +2281,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2260,7 +2302,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2281,7 +2323,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2302,7 +2344,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2323,7 +2365,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2344,7 +2386,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2365,7 +2407,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2386,7 +2428,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2407,7 +2449,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2428,7 +2470,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2449,7 +2491,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2470,7 +2512,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2491,7 +2533,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2512,7 +2554,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2533,7 +2575,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2554,7 +2596,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2575,7 +2617,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2596,7 +2638,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2617,7 +2659,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2638,7 +2680,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2659,7 +2701,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2680,7 +2722,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2701,7 +2743,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2722,7 +2764,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2743,7 +2785,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2764,7 +2806,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2785,7 +2827,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2806,7 +2848,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2827,7 +2869,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2848,7 +2890,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -2869,7 +2911,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -2890,7 +2932,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -2911,7 +2953,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -2932,7 +2974,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -2953,7 +2995,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -2974,7 +3016,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -2995,7 +3037,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3016,7 +3058,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3037,7 +3079,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3058,7 +3100,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3079,7 +3121,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3100,7 +3142,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3121,7 +3163,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3142,7 +3184,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3163,7 +3205,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3184,7 +3226,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3205,7 +3247,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3226,7 +3268,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3247,7 +3289,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3268,7 +3310,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3289,7 +3331,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3310,7 +3352,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3331,7 +3373,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3352,7 +3394,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3373,7 +3415,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3394,7 +3436,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3415,7 +3457,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3436,7 +3478,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3457,7 +3499,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3478,7 +3520,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3499,7 +3541,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3520,7 +3562,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3541,7 +3583,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3562,7 +3604,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3583,7 +3625,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3604,7 +3646,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3625,7 +3667,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3646,7 +3688,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3667,7 +3709,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3688,7 +3730,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3709,7 +3751,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3730,7 +3772,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3751,7 +3793,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3772,7 +3814,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3793,7 +3835,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3814,7 +3856,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3835,7 +3877,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3856,7 +3898,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -3877,7 +3919,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -3898,7 +3940,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -3919,7 +3961,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -3940,7 +3982,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -3961,7 +4003,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -3982,7 +4024,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4003,7 +4045,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4024,7 +4066,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4045,7 +4087,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4066,7 +4108,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4087,7 +4129,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4108,7 +4150,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4129,7 +4171,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4150,7 +4192,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4171,7 +4213,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4192,7 +4234,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4213,7 +4255,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4234,7 +4276,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4252,7 +4294,7 @@
       <c r="O149" s="22"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4270,7 +4312,7 @@
       <c r="O150" s="22"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4288,7 +4330,7 @@
       <c r="O151" s="22"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4306,7 +4348,7 @@
       <c r="O152" s="22"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4324,7 +4366,7 @@
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4342,7 +4384,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4360,7 +4402,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4378,7 +4420,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4396,7 +4438,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4414,7 +4456,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4432,7 +4474,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4450,7 +4492,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4468,7 +4510,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4486,7 +4528,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4504,7 +4546,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4522,7 +4564,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4540,7 +4582,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4558,7 +4600,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4576,7 +4618,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4594,7 +4636,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4612,7 +4654,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4630,7 +4672,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4648,7 +4690,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4666,7 +4708,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4684,7 +4726,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4702,7 +4744,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4720,7 +4762,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4738,7 +4780,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4756,7 +4798,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4774,7 +4816,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4792,7 +4834,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -4810,7 +4852,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -4828,7 +4870,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -4846,7 +4888,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -4873,14 +4915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4891,7 +4933,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4917,7 +4959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4927,7 +4969,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4937,7 +4979,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4947,7 +4989,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4957,7 +4999,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4967,7 +5009,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4977,7 +5019,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4987,7 +5029,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4997,7 +5039,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5007,7 +5049,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5017,7 +5059,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5027,7 +5069,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5037,7 +5079,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5047,7 +5089,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5057,7 +5099,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5067,7 +5109,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5077,7 +5119,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5087,7 +5129,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -199,14 +204,34 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信模板BusinessType选择优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理选择优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -846,14 +871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -878,7 +903,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -937,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -983,7 +1008,7 @@
       <c r="S2" s="27"/>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1029,7 +1054,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1067,7 +1092,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1105,7 +1130,7 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1151,7 +1176,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1197,7 +1222,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1237,7 +1262,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1275,7 +1300,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1313,7 +1338,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1351,7 +1376,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1362,7 +1387,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>27</v>
@@ -1389,7 +1414,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1427,18 +1452,34 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="24"/>
       <c r="N14" s="16"/>
@@ -1449,18 +1490,34 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="24"/>
       <c r="N15" s="16"/>
@@ -1471,7 +1528,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1493,7 +1550,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1515,7 +1572,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1537,7 +1594,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1559,7 +1616,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1581,7 +1638,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1603,7 +1660,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
@@ -1625,7 +1682,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1647,7 +1704,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
@@ -1669,7 +1726,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="C25" s="15"/>
@@ -1691,7 +1748,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
@@ -1713,7 +1770,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="18"/>
@@ -1735,7 +1792,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -1756,7 +1813,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -1777,7 +1834,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -1798,7 +1855,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -1819,7 +1876,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -1840,7 +1897,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -1861,7 +1918,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -1882,7 +1939,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -1903,7 +1960,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -1924,7 +1981,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -1945,7 +2002,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1966,7 +2023,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1987,7 +2044,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2008,7 +2065,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2029,7 +2086,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2050,7 +2107,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2071,7 +2128,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2092,7 +2149,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2113,7 +2170,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2134,7 +2191,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2155,7 +2212,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2176,7 +2233,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2197,7 +2254,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2218,7 +2275,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2239,7 +2296,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2260,7 +2317,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2281,7 +2338,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2302,7 +2359,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2323,7 +2380,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2344,7 +2401,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2365,7 +2422,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2386,7 +2443,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2407,7 +2464,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2428,7 +2485,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2449,7 +2506,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2470,7 +2527,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2491,7 +2548,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2512,7 +2569,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2533,7 +2590,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2554,7 +2611,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2575,7 +2632,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2596,7 +2653,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2617,7 +2674,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2638,7 +2695,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2659,7 +2716,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2680,7 +2737,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2701,7 +2758,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2722,7 +2779,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2743,7 +2800,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2764,7 +2821,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2785,7 +2842,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2806,7 +2863,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2827,7 +2884,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2848,7 +2905,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2869,7 +2926,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2890,7 +2947,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -2911,7 +2968,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -2932,7 +2989,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -2953,7 +3010,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -2974,7 +3031,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -2995,7 +3052,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3016,7 +3073,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3037,7 +3094,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3058,7 +3115,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3079,7 +3136,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3100,7 +3157,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3121,7 +3178,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3142,7 +3199,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3163,7 +3220,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3184,7 +3241,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3205,7 +3262,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3226,7 +3283,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3247,7 +3304,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3268,7 +3325,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3289,7 +3346,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3310,7 +3367,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3331,7 +3388,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3352,7 +3409,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3373,7 +3430,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3394,7 +3451,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3415,7 +3472,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3436,7 +3493,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3457,7 +3514,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3478,7 +3535,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3499,7 +3556,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3520,7 +3577,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3541,7 +3598,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3562,7 +3619,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3583,7 +3640,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3604,7 +3661,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3625,7 +3682,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3646,7 +3703,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3667,7 +3724,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3688,7 +3745,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3709,7 +3766,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3730,7 +3787,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3751,7 +3808,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3772,7 +3829,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3793,7 +3850,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3814,7 +3871,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3835,7 +3892,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3856,7 +3913,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3877,7 +3934,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3898,7 +3955,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -3919,7 +3976,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -3940,7 +3997,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -3961,7 +4018,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -3982,7 +4039,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4003,7 +4060,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4024,7 +4081,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4045,7 +4102,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4066,7 +4123,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4087,7 +4144,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4108,7 +4165,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4129,7 +4186,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4150,7 +4207,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4171,7 +4228,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4192,7 +4249,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4213,7 +4270,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4234,7 +4291,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4255,7 +4312,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4276,7 +4333,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4294,7 +4351,7 @@
       <c r="O149" s="22"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4312,7 +4369,7 @@
       <c r="O150" s="22"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4330,7 +4387,7 @@
       <c r="O151" s="22"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4348,7 +4405,7 @@
       <c r="O152" s="22"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4366,7 +4423,7 @@
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4384,7 +4441,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4402,7 +4459,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4420,7 +4477,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4438,7 +4495,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4456,7 +4513,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4474,7 +4531,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4492,7 +4549,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4510,7 +4567,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4528,7 +4585,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4546,7 +4603,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4564,7 +4621,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4582,7 +4639,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4600,7 +4657,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4618,7 +4675,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4636,7 +4693,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4654,7 +4711,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4672,7 +4729,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4690,7 +4747,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4708,7 +4765,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4726,7 +4783,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4744,7 +4801,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4762,7 +4819,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4780,7 +4837,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4798,7 +4855,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4816,7 +4873,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4834,7 +4891,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -4852,7 +4909,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -4870,7 +4927,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -4888,7 +4945,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -4915,14 +4972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4933,7 +4990,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +5016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4969,7 +5026,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4979,7 +5036,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4989,7 +5046,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4999,7 +5056,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5009,7 +5066,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5019,7 +5076,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5029,7 +5086,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5039,7 +5096,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5049,7 +5106,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5059,7 +5116,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5069,7 +5126,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5079,7 +5136,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5089,7 +5146,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5099,7 +5156,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5109,7 +5166,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5119,7 +5176,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5129,7 +5186,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -224,6 +219,10 @@
   </si>
   <si>
     <t>彭堃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +874,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1082,7 +1081,9 @@
       <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>
@@ -1120,7 +1121,9 @@
       <c r="K5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
@@ -1328,7 +1331,9 @@
       <c r="K10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M10" s="24"/>
       <c r="N10" s="16"/>
       <c r="O10" s="24"/>
@@ -1442,7 +1447,9 @@
       <c r="K13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M13" s="24"/>
       <c r="N13" s="16"/>
       <c r="O13" s="24"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -874,7 +874,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,9 +1084,15 @@
       <c r="L4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1124,9 +1130,15 @@
       <c r="L5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -210,19 +210,38 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>消息管理选择优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>短信模板BusinessType选择优化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>消息管理选择优化</t>
+    <t>邵明基</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>彭堃</t>
+    <t>通过</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>余星赞</t>
+    <t>邵明基</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +893,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1082,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>50</v>
@@ -1128,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="24" t="s">
         <v>50</v>
@@ -1223,7 +1242,7 @@
         <v>49</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="N7" s="16">
         <v>42637</v>
@@ -1266,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>
@@ -1305,10 +1324,18 @@
       <c r="K9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
+      <c r="L9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1344,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="16"/>
@@ -1383,10 +1410,18 @@
       <c r="K11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
+      <c r="L11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1421,10 +1456,18 @@
       <c r="K12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="24"/>
+      <c r="L12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -1460,11 +1503,17 @@
         <v>28</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -1476,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>31</v>
@@ -1499,7 +1548,9 @@
       <c r="K14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="M14" s="24"/>
       <c r="N14" s="16"/>
       <c r="O14" s="24"/>
@@ -1514,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>31</v>
@@ -1532,12 +1583,14 @@
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
       <c r="J15" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="M15" s="24"/>
       <c r="N15" s="16"/>
       <c r="O15" s="24"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -893,7 +893,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,9 +1373,15 @@
       <c r="L10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1551,9 +1557,15 @@
       <c r="L14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="24"/>
+      <c r="M14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -1591,9 +1603,15 @@
       <c r="L15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="24"/>
+      <c r="M15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -206,42 +206,54 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>消息管理选择优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信模板BusinessType选择优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码签约首页宣传图</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>房东APP</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>消息管理选择优化</t>
+    <t>房东PC、APP</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>彭堃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信模板BusinessType选择优化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
+    <t>郑良杰、扬正全</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +905,7 @@
   <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>50</v>
@@ -1147,7 +1159,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" s="24" t="s">
         <v>50</v>
@@ -1242,7 +1254,7 @@
         <v>49</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7" s="16">
         <v>42637</v>
@@ -1285,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>
@@ -1325,10 +1337,10 @@
         <v>28</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" s="16">
         <v>42637</v>
@@ -1371,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>50</v>
@@ -1417,10 +1429,10 @@
         <v>28</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="N11" s="16">
         <v>42637</v>
@@ -1445,7 +1457,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>27</v>
@@ -1463,10 +1475,10 @@
         <v>28</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N12" s="16">
         <v>42637</v>
@@ -1509,10 +1521,10 @@
         <v>28</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N13" s="16">
         <v>42637</v>
@@ -1531,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>31</v>
@@ -1555,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>50</v>
@@ -1577,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>31</v>
@@ -1595,13 +1607,13 @@
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
       <c r="J15" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="24" t="s">
         <v>50</v>
@@ -1619,21 +1631,45 @@
       <c r="T15" s="28"/>
     </row>
     <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="16"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -254,14 +254,22 @@
   </si>
   <si>
     <t>郑良杰、扬正全</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散式房态图和集中式房态图两个界面视频无法显示，需要前端对界面布局调整。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -434,7 +442,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +529,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -901,14 +912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -933,7 +944,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1038,7 +1049,7 @@
       <c r="S2" s="27"/>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1084,7 +1095,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1130,7 +1141,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1176,7 +1187,7 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1222,7 +1233,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1268,7 +1279,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1299,16 +1310,24 @@
       <c r="L8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42653</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="27"/>
+      <c r="S8" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1354,7 +1373,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1400,7 +1419,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1446,7 +1465,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1492,7 +1511,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1538,7 +1557,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1584,7 +1603,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1630,7 +1649,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1676,7 +1695,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1698,7 +1717,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1720,7 +1739,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1742,7 +1761,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1764,7 +1783,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1786,7 +1805,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
@@ -1808,7 +1827,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1830,7 +1849,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
@@ -1852,7 +1871,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="C25" s="15"/>
@@ -1874,7 +1893,7 @@
       <c r="S25" s="27"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
@@ -1896,7 +1915,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="18"/>
@@ -1918,7 +1937,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -1939,7 +1958,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -1960,7 +1979,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -1981,7 +2000,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -2002,7 +2021,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -2023,7 +2042,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -2044,7 +2063,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -2065,7 +2084,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -2086,7 +2105,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -2107,7 +2126,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -2128,7 +2147,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -2149,7 +2168,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -2170,7 +2189,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2191,7 +2210,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2212,7 +2231,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2233,7 +2252,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2254,7 +2273,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2275,7 +2294,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2296,7 +2315,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2317,7 +2336,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2338,7 +2357,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2359,7 +2378,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2380,7 +2399,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2401,7 +2420,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2422,7 +2441,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2443,7 +2462,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2464,7 +2483,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2485,7 +2504,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2506,7 +2525,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2527,7 +2546,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2548,7 +2567,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2569,7 +2588,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2590,7 +2609,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2611,7 +2630,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2632,7 +2651,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2653,7 +2672,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2674,7 +2693,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2695,7 +2714,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2716,7 +2735,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2737,7 +2756,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2758,7 +2777,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2779,7 +2798,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2800,7 +2819,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2821,7 +2840,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2842,7 +2861,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2863,7 +2882,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2884,7 +2903,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2905,7 +2924,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2926,7 +2945,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2947,7 +2966,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2968,7 +2987,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2989,7 +3008,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3010,7 +3029,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3031,7 +3050,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3052,7 +3071,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3073,7 +3092,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3094,7 +3113,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3115,7 +3134,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3136,7 +3155,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3157,7 +3176,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3178,7 +3197,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3199,7 +3218,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3220,7 +3239,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3241,7 +3260,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3262,7 +3281,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3283,7 +3302,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3304,7 +3323,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3325,7 +3344,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3346,7 +3365,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3367,7 +3386,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3388,7 +3407,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3409,7 +3428,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3430,7 +3449,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3451,7 +3470,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3472,7 +3491,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3493,7 +3512,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3514,7 +3533,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3535,7 +3554,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3556,7 +3575,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3577,7 +3596,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3598,7 +3617,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3619,7 +3638,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3640,7 +3659,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3661,7 +3680,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3682,7 +3701,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3703,7 +3722,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3724,7 +3743,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3745,7 +3764,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3766,7 +3785,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3787,7 +3806,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3808,7 +3827,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3829,7 +3848,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3850,7 +3869,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3871,7 +3890,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3892,7 +3911,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3913,7 +3932,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3934,7 +3953,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3955,7 +3974,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3976,7 +3995,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3997,7 +4016,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -4018,7 +4037,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -4039,7 +4058,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -4060,7 +4079,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -4081,7 +4100,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4102,7 +4121,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4123,7 +4142,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4144,7 +4163,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4165,7 +4184,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4186,7 +4205,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4207,7 +4226,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4228,7 +4247,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4249,7 +4268,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4270,7 +4289,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4291,7 +4310,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4312,7 +4331,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4333,7 +4352,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4354,7 +4373,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4375,7 +4394,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4396,7 +4415,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4417,7 +4436,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4438,7 +4457,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4459,7 +4478,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4477,7 +4496,7 @@
       <c r="O149" s="22"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4495,7 +4514,7 @@
       <c r="O150" s="22"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4513,7 +4532,7 @@
       <c r="O151" s="22"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4531,7 +4550,7 @@
       <c r="O152" s="22"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4549,7 +4568,7 @@
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4567,7 +4586,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4585,7 +4604,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4603,7 +4622,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4621,7 +4640,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4639,7 +4658,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4657,7 +4676,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4675,7 +4694,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4693,7 +4712,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4711,7 +4730,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4729,7 +4748,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4747,7 +4766,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4765,7 +4784,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4783,7 +4802,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4801,7 +4820,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4819,7 +4838,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4837,7 +4856,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4855,7 +4874,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4873,7 +4892,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4891,7 +4910,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4909,7 +4928,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4927,7 +4946,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4945,7 +4964,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4963,7 +4982,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4981,7 +5000,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4999,7 +5018,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -5017,7 +5036,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -5035,7 +5054,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -5053,7 +5072,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -5071,7 +5090,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -5098,14 +5117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5116,7 +5135,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -5142,7 +5161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5152,7 +5171,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5162,7 +5181,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5172,7 +5191,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5182,7 +5201,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5192,7 +5211,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5202,7 +5221,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5212,7 +5231,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5222,7 +5241,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5232,7 +5251,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5242,7 +5261,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5252,7 +5271,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5262,7 +5281,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5272,7 +5291,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5282,7 +5301,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5292,7 +5311,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5302,7 +5321,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5312,7 +5331,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
